--- a/ozone/multistate/ANO-RCC-VTZP/ozone_109.00/ozone_109.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_109.00/ozone_109.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7458926733</v>
+        <v>-0.5606286947</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.510681</v>
+        <v>-224.73294817</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.25657367</v>
+        <v>-225.29357686</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5079508865</v>
+        <v>-224.5079508864</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7792747102000001</v>
+        <v>-0.5692257884</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49711926</v>
+        <v>-224.66741214</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.27639397</v>
+        <v>-225.23663793</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5079508865</v>
+        <v>-224.5079508864</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8371295640999999</v>
+        <v>-0.5708211992</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42614333</v>
+        <v>-224.64132809</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26327289</v>
+        <v>-225.21214929</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5079508865</v>
+        <v>-224.5079508864</v>
       </c>
     </row>
   </sheetData>
